--- a/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
+++ b/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/E-355-D/Grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5A92E-AAED-9145-912D-9C02208C630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709F63C-B8B8-7943-A712-F7672F4E2C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3BD97A6A-52E3-F741-89AE-F454EBEFACB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3BD97A6A-52E3-F741-89AE-F454EBEFACB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>E355 Grades</t>
   </si>
@@ -420,80 +420,80 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,7 +813,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K7" sqref="K7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,640 +823,706 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="3">
         <f>(F2+F5+F8+F11)/(COUNT(F2,F5,F8,F11))</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="7">
         <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="3">
         <f>(F4+F7+F10+F13)/(COUNT(F4,F7,F10,F13))</f>
         <v>0.96866666666666668</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="7">
         <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="17">
         <f>(14.8/15)</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="K4" s="11" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="3">
         <f>(F3+F6+F9+F12+F15)/(COUNT(F3,F6,F9,F12,F15))</f>
         <v>0.96666666666666679</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="7">
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="17">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="K5" s="11" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="15">
-        <f>F27</f>
-        <v>0.65151515151515149</v>
-      </c>
-      <c r="M5" s="25">
+      <c r="L5" s="3">
+        <f>(F27+F28)/2</f>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="M5" s="7">
         <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="17">
         <f>28/28</f>
         <v>1</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="20" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="5">
         <f>F26</f>
         <v>1</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="7">
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17">
         <f>35/35</f>
         <v>1</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="K7" s="16">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="K7" s="11">
         <f>(L2*M2)+(L3*M3)+(L4*M4)+(L5*M5)+(L6*M6)</f>
-        <v>0.86199866666666669</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="17"/>
+        <v>0.91699866666666674</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17">
         <f>24/24</f>
         <v>1</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17">
         <f>32.9/35</f>
         <v>0.94</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="17">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="17">
         <f>30/36</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="17">
         <f>33.18/35</f>
         <v>0.94799999999999995</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="17">
         <f>34/34</f>
         <v>1</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="17">
         <v>1</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="17">
         <f>21.5/33</f>
         <v>0.65151515151515149</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="17">
+        <f>32.5/33</f>
+        <v>0.98484848484848486</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="F40:I40"/>
@@ -1473,71 +1539,6 @@
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
+++ b/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/E-355-D/Grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709F63C-B8B8-7943-A712-F7672F4E2C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5340DA-33A5-EC4F-821F-761501A1BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3BD97A6A-52E3-F741-89AE-F454EBEFACB0}"/>
+    <workbookView xWindow="11780" yWindow="500" windowWidth="17020" windowHeight="17500" xr2:uid="{3BD97A6A-52E3-F741-89AE-F454EBEFACB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>E355 Grades</t>
   </si>
@@ -441,9 +441,36 @@
     <xf numFmtId="10" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,33 +494,6 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,7 +813,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:M8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,40 +823,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="K1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="17">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="15">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
       <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
@@ -869,45 +869,45 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="17">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
       <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="3">
-        <f>(F4+F7+F10+F13)/(COUNT(F4,F7,F10,F13))</f>
-        <v>0.96866666666666668</v>
+        <f>(F4+F7+F10+F13+F17)/(COUNT(F4,F7,F10,F13,F17))</f>
+        <v>0.95373333333333332</v>
       </c>
       <c r="M3" s="7">
         <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="17">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15">
         <f>(14.8/15)</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
@@ -920,20 +920,20 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="17">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
       <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
@@ -946,20 +946,20 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="17">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15">
         <f>28/28</f>
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
       <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
@@ -972,522 +972,528 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="17">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15">
         <f>35/35</f>
         <v>1</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="K7" s="11">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="K7" s="20">
         <f>(L2*M2)+(L3*M3)+(L4*M4)+(L5*M5)+(L6*M6)</f>
-        <v>0.91699866666666674</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+        <v>0.91451973333333347</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="17">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="15">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="17">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="15">
         <f>24/24</f>
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="17">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15">
         <f>32.9/35</f>
         <v>0.94</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="17">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="17">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="15">
         <f>30/36</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="17">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="15">
         <f>33.18/35</f>
         <v>0.94799999999999995</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="17" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="17">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="15">
         <f>34/34</f>
         <v>1</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="17" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="15">
+        <f>31.29/35</f>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="17" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="17">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="15">
         <v>1</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="17">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="15">
         <f>21.5/33</f>
         <v>0.65151515151515149</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="17">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="15">
         <f>32.5/33</f>
         <v>0.98484848484848486</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
@@ -1504,41 +1510,36 @@
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
+++ b/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/E-355-D/Grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5340DA-33A5-EC4F-821F-761501A1BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF03C69C-9A53-BA49-94CD-E85695AB5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11780" yWindow="500" windowWidth="17020" windowHeight="17500" xr2:uid="{3BD97A6A-52E3-F741-89AE-F454EBEFACB0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>E355 Grades</t>
   </si>
@@ -441,6 +441,42 @@
     <xf numFmtId="10" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,42 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,40 +823,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="15">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
@@ -869,19 +869,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="15">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
@@ -894,46 +894,46 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="15">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="17">
         <f>(14.8/15)</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
       <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="3">
-        <f>(F3+F6+F9+F12+F15)/(COUNT(F3,F6,F9,F12,F15))</f>
-        <v>0.96666666666666679</v>
+        <f>(F3+F6+F9+F12+F15+F19)/(COUNT(F3,F6,F9,F12,F15,F19))</f>
+        <v>0.97222222222222232</v>
       </c>
       <c r="M4" s="7">
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="15">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="17">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
       <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
@@ -946,20 +946,20 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="15">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="17">
         <f>28/28</f>
         <v>1</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
@@ -972,493 +972,559 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17">
         <f>35/35</f>
         <v>1</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="K7" s="20">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="K7" s="11">
         <f>(L2*M2)+(L3*M3)+(L4*M4)+(L5*M5)+(L6*M6)</f>
-        <v>0.91451973333333347</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+        <v>0.91637528888888897</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17">
         <f>24/24</f>
         <v>1</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17">
         <f>32.9/35</f>
         <v>0.94</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="15">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="17">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="17">
         <f>30/36</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="17">
         <f>33.18/35</f>
         <v>0.94799999999999995</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="15" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="17">
         <f>34/34</f>
         <v>1</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="15" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="15">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="17">
         <f>31.29/35</f>
         <v>0.89400000000000002</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="15" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="15" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="17">
+        <f>28/28</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="15" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="15" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="15" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="15">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="17">
         <v>1</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="15">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="17">
         <f>21.5/33</f>
         <v>0.65151515151515149</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="15">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="17">
         <f>32.5/33</f>
         <v>0.98484848484848486</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="15" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="F40:I40"/>
@@ -1475,71 +1541,6 @@
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
+++ b/Stevens_Spring_2022/E-355-D/Grade/E355-FinalGrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/E-355-D/Grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF03C69C-9A53-BA49-94CD-E85695AB5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA56CD1-77AA-9741-84BD-F1B9BD10076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="500" windowWidth="17020" windowHeight="17500" xr2:uid="{3BD97A6A-52E3-F741-89AE-F454EBEFACB0}"/>
+    <workbookView xWindow="15340" yWindow="500" windowWidth="13460" windowHeight="17500" xr2:uid="{3BD97A6A-52E3-F741-89AE-F454EBEFACB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>E355 Grades</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">Quiz 3 </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Total Grade</t>
@@ -418,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,7 +438,31 @@
     <xf numFmtId="10" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,31 +489,8 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +498,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -810,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10569A-3DBE-254E-9734-DF42E2BC5A01}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,143 +852,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="K1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="14">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="17">
-        <f>6/6</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L2" s="3">
-        <f>(F2+F5+F8+F11)/(COUNT(F2,F5,F8,F11))</f>
-        <v>0.95833333333333337</v>
+        <f>(F2+F5+F8+F11+F14+F18+F21+F23)/(COUNT(F2,F5,F8,F11,F14,F18,F21,F23))</f>
+        <v>0.97916666666666674</v>
       </c>
       <c r="M2" s="7">
         <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3">
-        <f>(F4+F7+F10+F13+F17)/(COUNT(F4,F7,F10,F13,F17))</f>
-        <v>0.95373333333333332</v>
+        <f>(F4+F7+F10+F13+F16+F17+F20+F22)/(COUNT(F4,F7,F10,F13,F16,F17,F20,F22))</f>
+        <v>0.96965476190476185</v>
       </c>
       <c r="M3" s="7">
         <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="17">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="14">
         <f>(14.8/15)</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3">
-        <f>(F3+F6+F9+F12+F15+F19)/(COUNT(F3,F6,F9,F12,F15,F19))</f>
-        <v>0.97222222222222232</v>
+        <f>186/200</f>
+        <v>0.93</v>
       </c>
       <c r="M4" s="7">
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="17">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="14">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="3">
-        <f>(F27+F28)/2</f>
-        <v>0.81818181818181812</v>
+        <f>(F27+F28+F29)/3</f>
+        <v>0.80212121212121212</v>
       </c>
       <c r="M5" s="7">
         <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="17">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14">
         <f>28/28</f>
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
       <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
@@ -972,500 +1001,549 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="17">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="14">
         <f>35/35</f>
         <v>1</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="K7" s="11">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="19">
         <f>(L2*M2)+(L3*M3)+(L4*M4)+(L5*M5)+(L6*M6)</f>
-        <v>0.91637528888888897</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+        <v>0.90294935714285707</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="17">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="17">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14">
         <f>24/24</f>
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="17">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="14">
         <f>32.9/35</f>
         <v>0.94</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="17">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="17">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="14">
         <f>30/36</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="17">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="14">
         <f>33.18/35</f>
         <v>0.94799999999999995</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="14">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="17">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="14">
         <f>34/34</f>
         <v>1</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="14">
+        <f>30/30</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="17">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14">
         <f>31.29/35</f>
         <v>0.89400000000000002</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="14">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="17">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="14">
         <f>28/28</f>
         <v>1</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="14">
+        <f>34.6/35</f>
+        <v>0.98857142857142866</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="14">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="14">
+        <f>35/35</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="14">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="14">
+        <f>10/18</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="14">
+        <f>18/18</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="17">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="17">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="14">
         <f>21.5/33</f>
         <v>0.65151515151515149</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="17">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="14">
         <f>32.5/33</f>
         <v>0.98484848484848486</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+  <mergeCells count="60">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
@@ -1478,70 +1556,21 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
+  <conditionalFormatting sqref="F29:I29">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>77</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>77</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>